--- a/python_weather_data.xlsx
+++ b/python_weather_data.xlsx
@@ -382,7 +382,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31/03/2020, 16:03:53</t>
+          <t>31/03/2020, 16:16:08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
